--- a/biology/Microbiologie/Reticulowoodruffiidae/Reticulowoodruffiidae.xlsx
+++ b/biology/Microbiologie/Reticulowoodruffiidae/Reticulowoodruffiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Reticulowoodruffiidae sont une famille de Ciliés de la classe des Colpodea et de l’ordre des Cyrtolophosidida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Reticulowoodruffia, composé du préfixe reticulo‑ (du latin reticul, réseau), et du suffixe ‑woodruffia par allusion au genre Woodruffia Kahl, 1931 (famille des Woodruffiidae), littéralement « Woodruffia réticulé », en référence à la structure complexe du réseau de petits polygones (argyrome) de cet organisme. 
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Foissner (d) fait, de cette famille la description suivante : 
-« Cyrtolophosidida de taille petite à moyenne, ayant une ouverture orale elliptique en un croissant, près de l'extrémité antérieure ventrale, parallèle à l'axe du corps. Organelle parorale constituée d'une rangée ininterrompue de dicinétides[note 1], dessinant une figure elliptique avec les organelles adoraux. Pas de pseudo-membrane postorale sur la marge buccale gauche. Argyrome[note 2] mixte (colpodien / platyophryidien ou platyophryidien / kreyellidien [note 3])[1]. »
+« Cyrtolophosidida de taille petite à moyenne, ayant une ouverture orale elliptique en un croissant, près de l'extrémité antérieure ventrale, parallèle à l'axe du corps. Organelle parorale constituée d'une rangée ininterrompue de dicinétides[note 1], dessinant une figure elliptique avec les organelles adoraux. Pas de pseudo-membrane postorale sur la marge buccale gauche. Argyrome[note 2] mixte (colpodien / platyophryidien ou platyophryidien / kreyellidien [note 3]). »
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (21 novembre 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (21 novembre 2022) :
 Reticulowoodruffia Foissner, 1993
 Semiplatyophrya Wilbert &amp; Kahan, 1986</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Reticulowoodruffiidae Foissner, 1993[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Reticulowoodruffiidae Foissner, 1993.
 </t>
         </is>
       </c>
